--- a/artigos_MDPI/SelecaoFase1 - Lidia.xlsx
+++ b/artigos_MDPI/SelecaoFase1 - Lidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado\slr\artigos_MDPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76BD5A3-7C0C-4305-B6CE-349AC9E4292D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8822B5E-E326-42C2-ABDD-58A33C246737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A65388C-AACB-4B7E-B60C-47E18581C927}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>type</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>article</t>
+  </si>
+  <si>
+    <t>Aceito</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +608,9 @@
       <c r="D2">
         <v>2018</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
